--- a/data/income_statement/3digits/total/731_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/731_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>731-Advertising</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>731-Advertising</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>843569636.95228</v>
+        <v>11163874.28514</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1532654016.47938</v>
+        <v>13355287.92108</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>36276717.15685</v>
+        <v>12917967.16723</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>17121847.63566</v>
+        <v>13809458.50747</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>15113830.65609</v>
+        <v>14951502.08516</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>15923961.37471</v>
+        <v>15937038.85049</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>17928242.05071</v>
+        <v>18083612.75294</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>19996593.73882</v>
+        <v>20116253.18195</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>22180931.01132</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>23805950.77827</v>
+        <v>23966857.26665</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>27181506.50919</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>28064843.80383</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>31303199.142</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>843142675.94601</v>
+        <v>10736913.27887</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1532186359.23281</v>
+        <v>12887630.67451</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>35727011.90967</v>
+        <v>12368261.92005</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>16512890.5902</v>
+        <v>13200500.96201</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>14465166.99515</v>
+        <v>14302477.0295</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>15182711.82971</v>
+        <v>15195607.75275</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>17129900.36654</v>
+        <v>17283263.88037</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>19133618.95565</v>
+        <v>19246090.21664</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>21138091.43763</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>22489453.38495</v>
+        <v>22649716.56032</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>25488851.97612</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>26357305.21164</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>29165439.536</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>176428.5752</v>
@@ -1040,31 +956,36 @@
         <v>197981.6455</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>233912.35746</v>
+        <v>234244.19242</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>286739.69356</v>
+        <v>286904.07384</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>312329.39686</v>
+        <v>314053.88887</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>336527.01675</v>
+        <v>341586.6243</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>435335.5905999999</v>
+        <v>435335.5906</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>645399.35722</v>
+        <v>645482.7873199999</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>851451.45122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>864035.0850600001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1251876.531</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>250532.43107</v>
@@ -1076,73 +997,83 @@
         <v>293222.83542</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>410975.39996</v>
+        <v>410975.89996</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>414751.30348</v>
+        <v>414780.86324</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>454509.8514400001</v>
+        <v>454527.0239</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>486012.28731</v>
+        <v>486294.9837</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>526447.76642</v>
+        <v>528576.34101</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>607503.98309</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>671098.0361</v>
+        <v>671657.91901</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>841203.0818500001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>843503.5071300002</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>885883.075</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>834885813.34077</v>
+        <v>2480050.67363</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1521899457.29554</v>
+        <v>2600728.73724</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>23695429.65586999</v>
+        <v>336635.32628</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>3706757.914960001</v>
+        <v>392057.00747</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>663606.36544</v>
+        <v>349152.66001</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>418925.9474</v>
+        <v>418980.0965</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>507664.72197</v>
+        <v>511639.14972</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>657822.2679300001</v>
+        <v>660579.59939</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>544434.6665400001</v>
+        <v>544434.66654</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>684036.35031</v>
+        <v>684123.86976</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>719370.36225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>726778.19661</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>817556.025</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>230321.35481</v>
@@ -1157,70 +1088,80 @@
         <v>264862.16032</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>252042.34806</v>
+        <v>253677.80252</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>318769.44224</v>
+        <v>318823.59134</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>410540.62123</v>
+        <v>414510.94453</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>545374.51812</v>
+        <v>548131.84958</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>434825.11457</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>560107.60484</v>
+        <v>560195.1242899999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>582071.6464600001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>589228.1338099999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>672104.585</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>834608925.89248</v>
+        <v>2203163.22534</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1521686669.1646</v>
+        <v>2387940.6063</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>23391390.08209</v>
+        <v>32595.7525</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>3345729.24562</v>
+        <v>31028.33813</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>347917.34782</v>
+        <v>31828.18793</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>50284.7962</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>41925.95208</v>
+        <v>41930.05653</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>52458.19811</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>50159.97486000001</v>
+        <v>50159.97486</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>51105.71631</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>72781.71369999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>73033.06070999999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>61355.567</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>46566.09348</v>
@@ -1232,7 +1173,7 @@
         <v>98080.83078999999</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>96166.50902000001</v>
+        <v>96166.50902</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>63646.66955999999</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>64517.00209</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>84095.87300000001</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>8683823.611510001</v>
@@ -1268,76 +1214,86 @@
         <v>10754559.18384</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>12581287.50098</v>
+        <v>12581331.84095</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>13415089.7207</v>
+        <v>13417401.5</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>14450224.29065</v>
+        <v>14602349.42515</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>15505035.42731</v>
+        <v>15518058.75399</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>17420577.32874</v>
+        <v>17571973.60322</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>19338771.47089</v>
+        <v>19455673.58256</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>21636496.34478</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>23121914.42796</v>
+        <v>23282733.39689</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>26462136.14694</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>27338065.60722</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>30485643.117</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>7201449.19488</v>
+        <v>7201449.194879999</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>8842284.352810001</v>
+        <v>8842284.352809999</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>10555508.14491</v>
+        <v>10555546.44949</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>11198844.50319</v>
+        <v>11200534.68554</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>11967105.4225</v>
+        <v>12101253.26319</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>12902144.70981</v>
+        <v>12913538.47982</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>14646906.61006</v>
+        <v>14769033.94731</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>16357281.64916</v>
+        <v>16451565.2754</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>18387842.82842</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>19848029.74628</v>
+        <v>19986079.41104</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>22702252.40904</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>23504319.38257</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>26196704.261</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>538493.46554</v>
@@ -1355,10 +1311,10 @@
         <v>320565.36954</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>789420.2681099999</v>
+        <v>789803.3111800001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>353106.08606</v>
+        <v>358530.2401</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>330564.89379</v>
@@ -1367,19 +1323,24 @@
         <v>471334.04899</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>551516.28687</v>
+        <v>552873.8415499999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>557822.60769</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>576219.55787</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>853176.5060000001</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>887353.8588699999</v>
+        <v>887353.85887</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>851939.87044</v>
@@ -1391,73 +1352,83 @@
         <v>1226018.41487</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1275478.99861</v>
+        <v>1278755.08588</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1534876.11456</v>
+        <v>1534917.28161</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2486569.95815</v>
+        <v>2491010.345</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>2386434.83155</v>
+        <v>2386567.77776</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>3104122.57429</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2768422.7419</v>
+        <v>2863147.12238</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>3236385.07674</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3800861.34214</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>4967856.714</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>5341247.9676</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>7083721.19601</v>
+        <v>7083721.196009999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>8404284.79408</v>
+        <v>8404323.09866</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>9066073.16282</v>
+        <v>9067763.345170001</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>10363179.29537</v>
+        <v>10494051.04879</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>10559817.04135</v>
+        <v>10570786.60124</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>11788648.20026</v>
+        <v>11900832.00629</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>13621323.37209</v>
+        <v>13715154.81351</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>14789076.88</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>16506779.46328</v>
+        <v>16548619.81292</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>18865213.20298</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>19084087.92412</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>20328763.566</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>434353.9028699999</v>
+        <v>434353.90287</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>432378.66406</v>
@@ -1469,31 +1440,36 @@
         <v>499936.6045</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>7881.75898</v>
+        <v>7881.758980000001</v>
       </c>
       <c r="H18" s="48" t="n">
         <v>18031.28579</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>18582.36559</v>
+        <v>18661.35592</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>18958.55173</v>
+        <v>19277.79034</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>23309.32514</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>21311.25423</v>
+        <v>21438.63419</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>42831.52163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>43150.55844</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>46907.475</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>1482374.41663</v>
@@ -1502,37 +1478,42 @@
         <v>1912274.83103</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>2025779.35607</v>
+        <v>2025785.39146</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>2216245.21751</v>
+        <v>2216866.81446</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>2483118.86815</v>
+        <v>2501096.16196</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2602890.7175</v>
+        <v>2604520.27417</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2773670.71868</v>
+        <v>2802939.65591</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2981489.82173</v>
+        <v>3004108.30716</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>3248653.51636</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>3273884.68168</v>
+        <v>3296653.98585</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>3759883.7379</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>3833746.22465</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>4288938.856</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>1298980.66715</v>
@@ -1541,37 +1522,42 @@
         <v>1526293.90886</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1746465.40695</v>
+        <v>1746506.56431</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1915666.85673</v>
+        <v>1916037.69999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>2088547.9123</v>
+        <v>2089037.04391</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>2252762.32064</v>
+        <v>2254386.59115</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>2433937.28481</v>
+        <v>2454407.92566</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>2676609.18215</v>
+        <v>2712652.96531</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>2862180.96981</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>3169877.69771</v>
+        <v>3188535.23131</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>3585861.56314</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3647119.64663</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3654452.738</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>2475.63766</v>
@@ -1586,7 +1572,7 @@
         <v>4848.59775</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>8149.820969999999</v>
+        <v>8152.088389999999</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>7932.79854</v>
@@ -1604,13 +1590,18 @@
         <v>33651.11827</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>38248.41108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>43658.81431</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>16599.52</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>342715.34365</v>
@@ -1619,40 +1610,45 @@
         <v>475379.88836</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>468957.2031299999</v>
+        <v>468998.36049</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>452038.19313</v>
+        <v>452215.8580700001</v>
       </c>
       <c r="G22" s="48" t="n">
         <v>513296.86825</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>465983.43671</v>
+        <v>465986.88674</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>488767.0272699999</v>
+        <v>493509.45876</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>540365.7584500001</v>
+        <v>544361.08376</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>604910.702</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>660346.43316</v>
+        <v>661264.0874</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>774888.4862</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>780591.31514</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>787916.093</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>953789.68584</v>
+        <v>953789.6858399999</v>
       </c>
       <c r="D23" s="48" t="n">
         <v>1048220.99053</v>
@@ -1661,34 +1657,39 @@
         <v>1273896.92829</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1458780.06585</v>
+        <v>1458973.24417</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1567101.22308</v>
+        <v>1567588.08727</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1778846.08539</v>
+        <v>1780466.90587</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1936736.29866</v>
+        <v>1952464.50802</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>2113375.03745</v>
+        <v>2145423.4953</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>2238268.53239</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2475880.14628</v>
+        <v>2493620.02564</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2772724.66586</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2822869.51718</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2849937.125</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>183393.74948</v>
@@ -1697,37 +1698,42 @@
         <v>385980.92217</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>279313.94912</v>
+        <v>279278.82715</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>300578.36078</v>
+        <v>300829.11447</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>394570.95585</v>
+        <v>412059.11805</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>350128.39686</v>
+        <v>350133.68302</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>339733.4338699999</v>
+        <v>348531.73025</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>304880.63958</v>
+        <v>291455.34185</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>386472.54655</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>104006.98397</v>
+        <v>108118.75454</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>174022.17476</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>186626.57802</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>634486.118</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>265849.38235</v>
@@ -1739,40 +1745,45 @@
         <v>327145.18179</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>317454.88152</v>
+        <v>317465.53227</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>367809.66487</v>
+        <v>369633.76742</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>445281.56516</v>
+        <v>445308.19093</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>428146.04255</v>
+        <v>430365.43308</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>478553.89568</v>
+        <v>530566.8479599999</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>623040.6809500001</v>
+        <v>623040.68095</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1586927.70586</v>
+        <v>1586855.04612</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>3608988.30777</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>3611455.93046</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>2954386.861</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>2153.25671</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>8665.295880000001</v>
+        <v>8665.29588</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>10978.79847</v>
@@ -1796,16 +1807,21 @@
         <v>11486.77565</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>43433.14352999999</v>
+        <v>43433.14353</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>9881.11933</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>9881.119329999998</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>7734.886</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>25796.40136</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>34203.61714</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>9528.700000000001</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>36262.89115</v>
@@ -1856,34 +1877,39 @@
         <v>53886.54431</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>80094.75745999999</v>
+        <v>80105.40820999999</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>64689.75927</v>
+        <v>66401.57152</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>103253.4759</v>
+        <v>103258.60875</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>111848.55598</v>
+        <v>113443.48835</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>111219.59299</v>
+        <v>111331.05147</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>116118.72288</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>180965.49473</v>
+        <v>180965.71572</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>210924.89347</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>211641.11967</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>202856.343</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>10968.13894</v>
@@ -1901,52 +1927,57 @@
         <v>4400.08901</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>5753.665650000001</v>
+        <v>5753.665649999999</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>4514.255939999999</v>
+        <v>4514.57812</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>5908.20048</v>
+        <v>5933.05048</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>17519.83154</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>70413.70977</v>
+        <v>70415.70977</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>66280.72505000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>66280.15705000001</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>82338.02</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>6412.79387</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>6242.447510000001</v>
+        <v>6242.44751</v>
       </c>
       <c r="E30" s="48" t="n">
         <v>10988.10917</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>7662.802289999999</v>
+        <v>7662.80229</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>7096.71729</v>
+        <v>7123.717290000001</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>9725.300569999999</v>
+        <v>9730.5365</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>5175.14005</v>
+        <v>5175.140050000001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>8446.889780000001</v>
+        <v>8510.88978</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>10532.81482</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>18807.9522</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>11721.359</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>3098.50546</v>
@@ -1973,34 +2009,39 @@
         <v>7793.74554</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>5368.23176</v>
+        <v>5368.231760000001</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>2641.67945</v>
+        <v>2642.62356</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>6452.11551</v>
+        <v>6454.61783</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>6155.40084</v>
+        <v>6162.91537</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>6152.77</v>
+        <v>6156.17798</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>7992.02888</v>
+        <v>7992.028880000001</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>4389.210669999999</v>
+        <v>4425.89638</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>44862.19145999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>44897.54411</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>6325.03</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>113148.78737</v>
@@ -2015,31 +2056,36 @@
         <v>91994.11275</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>147796.72114</v>
+        <v>147879.57583</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>153488.06925</v>
+        <v>153499.28555</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>169621.63867</v>
+        <v>170114.71611</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>211451.08811</v>
+        <v>227556.23212</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>295669.64984</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>842438.7191500001</v>
+        <v>842519.3116499999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>2810668.609850001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>2812330.57745</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>2050789.641</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>8077.58442</v>
@@ -2048,7 +2094,7 @@
         <v>10484.47009</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>5233.68905</v>
+        <v>5233.689050000001</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>2489.41997</v>
@@ -2060,10 +2106,10 @@
         <v>2076.9313</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>1678.9828</v>
+        <v>1679.6948</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>215.91168</v>
+        <v>247.85024</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>188.45942</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>140.70584</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>150.298</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>682.23771</v>
@@ -2102,7 +2153,7 @@
         <v>1075.53616</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>5.886439999999999</v>
+        <v>10.72083</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>4.15843</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>45.58495</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>106.908</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>59248.78536</v>
@@ -2132,31 +2188,36 @@
         <v>100567.61607</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>94040.17388</v>
+        <v>94041.66538000001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>119237.5663</v>
+        <v>119240.10467</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>97545.67591000001</v>
+        <v>97668.50792</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>105369.35374</v>
+        <v>141036.6726</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>152373.99293</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>393586.80242</v>
+        <v>393394.64348</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>413172.90848</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>413227.55272</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>582835.676</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>163584.20273</v>
@@ -2171,34 +2232,39 @@
         <v>199639.67367</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>302656.1622</v>
+        <v>306077.63829</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>236868.19347</v>
+        <v>236874.53925</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>280265.81528</v>
+        <v>281310.4498</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>254043.16032</v>
+        <v>270078.18689</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>369572.93283</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1226982.23926</v>
+        <v>1227808.59531</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>3060822.16103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>3062162.94523</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>2425748.472</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>18736.93916</v>
+        <v>18736.93916000001</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>23787.85976</v>
@@ -2216,25 +2282,30 @@
         <v>42296.18135</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>51302.26940999999</v>
+        <v>51899.51753</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>43762.14809</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>56938.06031999999</v>
+        <v>56938.06032</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>179497.51949</v>
+        <v>179512.16274</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>150882.21156</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>151122.36666</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>159778.98</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>21375.48166</v>
@@ -2249,37 +2320,42 @@
         <v>19470.36768</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>25530.10461</v>
+        <v>27251.64329</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>44182.42155</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>54782.60279</v>
+        <v>54813.44594999999</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>42087.0269</v>
+        <v>42098.3549</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>30998.76174</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>49936.34136999999</v>
+        <v>50671.59188</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>50796.17049</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>50823.21993000001</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>24939.85</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>982.83092</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>750.7798999999999</v>
+        <v>750.7799</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>1425.13403</v>
@@ -2306,52 +2382,62 @@
         <v>5889.17831</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>563.87165</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>563.87266</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>1498.52</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>96450.15562000001</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>80339.82221</v>
+        <v>80339.82221000001</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>118976.99088</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>87241.73570999999</v>
+        <v>87241.73571000001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>218379.27098</v>
+        <v>218387.85426</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>131612.72925</v>
+        <v>131619.069</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>141619.37167</v>
+        <v>142032.20138</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>137661.59994</v>
+        <v>153628.20363</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>212874.23906</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>972414.18386</v>
+        <v>972479.4884100001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>2805427.5471</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>2806121.86771</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>2016279.764</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>4505.18359</v>
@@ -2360,22 +2446,22 @@
         <v>2683.47126</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>2809.953190000001</v>
+        <v>2809.95319</v>
       </c>
       <c r="F41" s="48" t="n">
         <v>2308.7643</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>779.84837</v>
+        <v>2471.2025</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>1594.09017</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>137.57939</v>
+        <v>137.99259</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>96.13111000000001</v>
+        <v>102.16534</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>21.44362</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>252.73411</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>20.551</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>165.90804</v>
@@ -2399,7 +2490,7 @@
         <v>439.76181</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>616.3713300000001</v>
+        <v>616.3713299999999</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>4.871090000000001</v>
@@ -2408,7 +2499,7 @@
         <v>13.73854</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>0.5515099999999999</v>
+        <v>0.5575399999999999</v>
       </c>
       <c r="I42" s="48" t="n">
         <v>38.50246</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0.54948</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>1.044</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>21367.70374</v>
@@ -2441,7 +2537,7 @@
         <v>20405.12232</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>9004.083899999998</v>
+        <v>9004.0839</v>
       </c>
       <c r="G43" s="48" t="n">
         <v>18129.23654</v>
@@ -2450,25 +2546,30 @@
         <v>11614.292</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>19601.16477</v>
+        <v>19604.4651</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>24675.77694</v>
+        <v>24726.83759</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>29516.76951</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>19172.53819</v>
+        <v>19183.69593</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>52899.07664</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>53278.33468</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>223229.763</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>122684.1538</v>
@@ -2480,34 +2581,39 @@
         <v>185228.2966</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>163041.39434</v>
+        <v>163041.45794</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>310770.65306</v>
+        <v>310777.10505</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>312376.48778</v>
+        <v>312401.58579</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>460400.72132</v>
+        <v>460684.86855</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>356825.865</v>
+        <v>357052.48749</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>512920.01519</v>
+        <v>512920.0151900001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>589834.8457599999</v>
+        <v>589985.39362</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>564233.3972799999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>566786.4050599999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>714610.443</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>119585.2364</v>
@@ -2519,34 +2625,39 @@
         <v>180363.53265</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>159466.69716</v>
+        <v>159466.76076</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>306098.50251</v>
+        <v>306104.9545</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>309297.67856</v>
+        <v>309322.77657</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>456815.95618</v>
+        <v>457100.10341</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>353746.26679</v>
+        <v>353972.8892799999</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>509300.25177</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>583567.26804</v>
+        <v>583717.8159</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>561695.3831100001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>564248.0450599999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>711708.3320000001</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>3098.9174</v>
@@ -2579,13 +2690,18 @@
         <v>6267.577719999999</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>2538.01417</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>2538.36</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>2902.111</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>162974.7753</v>
@@ -2594,76 +2710,86 @@
         <v>368182.37885</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>224613.32495</v>
+        <v>224578.20298</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>255352.17429</v>
+        <v>255613.51513</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>148953.80546</v>
+        <v>164838.14213</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>246165.28077</v>
+        <v>246165.74891</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>27212.93981999997</v>
+        <v>36901.84498000002</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>172565.50994</v>
+        <v>194891.51543</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>127020.27948</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-125882.39519</v>
+        <v>-122820.18827</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>157954.92422</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>169133.15819</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>448514.064</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>45764.04078</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>34769.68416999999</v>
+        <v>34769.68417</v>
       </c>
       <c r="E48" s="47" t="n">
         <v>38337.47885</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>48276.70198</v>
+        <v>48276.70198000001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>59639.08826</v>
+        <v>60293.88622</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>88172.55832</v>
+        <v>88242.14797000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>90905.8743</v>
+        <v>91282.70429000001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>77595.7016</v>
+        <v>78083.66387999999</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>101396.54961</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>147723.38651</v>
+        <v>148581.01607</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>134522.77106</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>136078.39535</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>282654.05</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>2175.229</v>
@@ -2690,19 +2816,24 @@
         <v>2111.84179</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>4368.10353</v>
+        <v>4368.103529999999</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>1797.83351</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>5407.395710000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>5407.7587</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>10240.362</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>43588.81178</v>
@@ -2711,82 +2842,92 @@
         <v>33911.21779</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>36829.52987000001</v>
+        <v>36829.52987</v>
       </c>
       <c r="F50" s="48" t="n">
         <v>46617.34974000001</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>57694.1095</v>
+        <v>58348.90746</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>86347.69318999999</v>
+        <v>86417.28283999999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>89310.92871000001</v>
+        <v>89687.75870000001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>75483.85981000001</v>
+        <v>75971.82209</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>97028.44608000001</v>
+        <v>97028.44607999999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>145925.553</v>
+        <v>146783.18256</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>129115.37535</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>130670.63665</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>272413.688</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>91947.04041</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>50511.84128999999</v>
+        <v>50511.84129</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>363404.05912</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>61620.95707000001</v>
+        <v>61636.05187</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>63326.66312</v>
+        <v>65795.63701999999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>262974.66169</v>
+        <v>263932.27389</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>79780.06591999999</v>
+        <v>81109.60351</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>356181.52362</v>
+        <v>356721.54877</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>137214.42481</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>311321.22037</v>
+        <v>312151.5277100001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>125024.63241</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>125994.42945</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>139110.542</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>772.91931</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>456.3383000000001</v>
+        <v>456.3383</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>508.83541</v>
@@ -2804,7 +2945,7 @@
         <v>342.84748</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>702.08809</v>
+        <v>702.0880900000001</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>769.18876</v>
@@ -2815,17 +2956,22 @@
       <c r="M52" s="48" t="n">
         <v>435.99725</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>245.707</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>7650.7284</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>5209.938039999999</v>
+        <v>5209.93804</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>10682.22612</v>
@@ -2837,28 +2983,33 @@
         <v>10703.90358</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>9383.156200000001</v>
+        <v>9383.156199999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>9362.57512</v>
+        <v>9362.579659999999</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>11126.973</v>
+        <v>11154.35585</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>7929.94427</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>6798.06055</v>
+        <v>7187.22585</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>10028.58126</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>9202.775059999998</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>8864.651</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>83523.39269999998</v>
@@ -2870,34 +3021,39 @@
         <v>352212.99759</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>53035.3535</v>
+        <v>53050.4483</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>52123.54315</v>
+        <v>54592.51704999999</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>252418.58183</v>
+        <v>253376.19403</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>70074.64332</v>
+        <v>71404.17637</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>344352.46253</v>
+        <v>344865.10483</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>128515.29178</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>303512.27361</v>
+        <v>303953.41565</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>114560.0539</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>116355.65714</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>130000.184</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>116791.77567</v>
@@ -2906,112 +3062,125 @@
         <v>352440.22173</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-100453.25532</v>
+        <v>-100488.37729</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>242007.9192</v>
+        <v>242254.16524</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>145266.2306</v>
+        <v>159336.39133</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>71363.17739999999</v>
+        <v>70475.62299</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>38338.74820000001</v>
+        <v>47074.94576000002</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-106020.31208</v>
+        <v>-83746.36946</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>91202.40428</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-289480.22905</v>
+        <v>-286390.69991</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>167453.06287</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>179217.12409</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>592057.572</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>58131.01424</v>
+        <v>58131.01424000001</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>88083.34264</v>
+        <v>88083.34264000002</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>98562.5284</v>
+        <v>98562.52840000001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>109992.76918</v>
+        <v>110047.14021</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>122023.03532</v>
+        <v>124839.32893</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>117406.32002</v>
+        <v>117462.46607</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>127611.95408</v>
+        <v>129763.99583</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>127196.03292</v>
+        <v>131587.70108</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>135139.65689</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>163226.69782</v>
+        <v>163991.79639</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>171772.20453</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>175962.63997</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>275305.497</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>58660.76143</v>
+        <v>58660.76143000001</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>264356.87909</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-199015.78372</v>
+        <v>-199050.90569</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>132015.15002</v>
+        <v>132207.02503</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>23243.19528000001</v>
+        <v>34497.0624</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-46043.14262</v>
+        <v>-46986.84307999999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-89273.20587999998</v>
+        <v>-82689.05007</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-233216.345</v>
+        <v>-215334.07054</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-43937.25261000001</v>
+        <v>-43937.25261000002</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-452706.92687</v>
+        <v>-450382.4963</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-4319.141660000004</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>3254.484120000005</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>316752.075</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>6447</v>
@@ -3038,34 +3210,37 @@
         <v>6591</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>6794</v>
+        <v>6795</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>6775</v>
+        <v>6779</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>6459</v>
+        <v>6471</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>6476</v>
+        <v>6491</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>6592</v>
+        <v>6643</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>6735</v>
+        <v>6768</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>7014</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>7015</v>
+        <v>7286</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>7069</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>7565</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>7875</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>